--- a/data/state_election_results/oklahoma_president.xlsx
+++ b/data/state_election_results/oklahoma_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0387A78F-8887-8A47-8EBD-C6AEFE85A44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30658259-643C-EE48-9E28-41DADBB1EA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{539E6582-0CF8-ED46-9CFA-0BF0AA5D3232}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Adair</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>biden.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,32 +647,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070AEEF-21A3-F74D-A3DB-1A8E65CA651C}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>5585</v>
@@ -689,7 +687,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1978</v>
@@ -706,7 +704,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>4557</v>
@@ -723,7 +721,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1968</v>
@@ -740,7 +738,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>6767</v>
@@ -757,7 +755,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>3136</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>12344</v>
@@ -791,7 +789,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>7013</v>
@@ -808,7 +806,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>43550</v>
@@ -825,7 +823,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>14699</v>
@@ -842,7 +840,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>11223</v>
@@ -859,7 +857,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>4698</v>
@@ -876,7 +874,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>970</v>
@@ -893,7 +891,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>66677</v>
@@ -910,7 +908,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>2091</v>
@@ -927,7 +925,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>20905</v>
@@ -944,7 +942,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>2117</v>
@@ -961,7 +959,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>4686</v>
@@ -978,7 +976,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>23294</v>
@@ -995,7 +993,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>8060</v>
@@ -1012,7 +1010,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>13557</v>
@@ -1029,7 +1027,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>2124</v>
@@ -1046,7 +1044,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1688</v>
@@ -1063,7 +1061,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>16970</v>
@@ -1080,7 +1078,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>8878</v>
@@ -1097,7 +1095,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>18538</v>
@@ -1114,7 +1112,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>1916</v>
@@ -1131,7 +1129,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1605</v>
@@ -1148,7 +1146,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>747</v>
@@ -1165,7 +1163,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>1327</v>
@@ -1182,7 +1180,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>4165</v>
@@ -1199,7 +1197,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>3875</v>
@@ -1216,7 +1214,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>6392</v>
@@ -1233,7 +1231,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>2026</v>
@@ -1250,7 +1248,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>3441</v>
@@ -1267,7 +1265,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>12834</v>
@@ -1284,7 +1282,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>5521</v>
@@ -1301,7 +1299,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>2673</v>
@@ -1318,7 +1316,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>3437</v>
@@ -1335,7 +1333,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>15213</v>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>12013</v>
@@ -1369,7 +1367,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>15608</v>
@@ -1386,7 +1384,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>3305</v>
@@ -1403,7 +1401,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>15295</v>
@@ -1420,7 +1418,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>9485</v>
@@ -1437,7 +1435,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>6172</v>
@@ -1454,7 +1452,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>3084</v>
@@ -1471,7 +1469,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>4891</v>
@@ -1488,7 +1486,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>12749</v>
@@ -1505,7 +1503,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>4612</v>
@@ -1522,7 +1520,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>16526</v>
@@ -1539,7 +1537,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>3821</v>
@@ -1556,7 +1554,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>3610</v>
@@ -1573,7 +1571,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>3058</v>
@@ -1590,7 +1588,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>145050</v>
@@ -1607,7 +1605,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>9668</v>
@@ -1624,7 +1622,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>14121</v>
@@ -1641,7 +1639,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>8545</v>
@@ -1658,7 +1656,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>5267</v>
@@ -1675,7 +1673,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>17813</v>
@@ -1692,7 +1690,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>13851</v>
@@ -1709,7 +1707,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>10805</v>
@@ -1726,7 +1724,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>20240</v>
@@ -1743,7 +1741,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>4016</v>
@@ -1760,7 +1758,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>1629</v>
@@ -1777,7 +1775,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>34031</v>
@@ -1794,7 +1792,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>6011</v>
@@ -1811,7 +1809,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>12113</v>
@@ -1828,7 +1826,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>15560</v>
@@ -1845,7 +1843,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>4505</v>
@@ -1862,7 +1860,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>2076</v>
@@ -1879,7 +1877,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>150574</v>
@@ -1896,7 +1894,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>26165</v>
@@ -1913,7 +1911,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>17076</v>
@@ -1930,7 +1928,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>4086</v>
@@ -1947,7 +1945,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>2993</v>
@@ -1964,7 +1962,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>6611</v>
